--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/bean-yield-estimation/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432AC6B9-68D3-9C4F-9563-3AD7158C40AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F4BC67-92F9-8B4E-A15D-F23A3B94127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>key</t>
   </si>
@@ -101,21 +101,12 @@
     <t>Kauê</t>
   </si>
   <si>
-    <t>Marie-Angélique</t>
-  </si>
-  <si>
     <t>de Sousa</t>
   </si>
   <si>
-    <t>Laporte</t>
-  </si>
-  <si>
     <t>0000-0002-7571-7845</t>
   </si>
   <si>
-    <t>0000-0002-8461-9745</t>
-  </si>
-  <si>
     <t>datamanager</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>grant_number</t>
   </si>
   <si>
-    <t>Norwegian Agency for Development Cooperation</t>
-  </si>
-  <si>
     <t>community_id</t>
   </si>
   <si>
@@ -155,12 +143,6 @@
     <t>submitted</t>
   </si>
   <si>
-    <t>data-driven research; FAIR principles</t>
-  </si>
-  <si>
-    <t>https://ror.org/04zbn7k04</t>
-  </si>
-  <si>
     <t>Gates Foundation</t>
   </si>
   <si>
@@ -173,18 +155,9 @@
     <t>INV-031561</t>
   </si>
   <si>
-    <t>CONT-1522</t>
-  </si>
-  <si>
-    <t>Biodiversity for Opportunities, Livelihoods and Development (BOLD)</t>
-  </si>
-  <si>
     <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
   </si>
   <si>
-    <t>Template for project-oriented and FAIR data analysis workflows</t>
-  </si>
-  <si>
     <t>cropontologycop</t>
   </si>
   <si>
@@ -194,7 +167,46 @@
     <t>University of Inland Norway</t>
   </si>
   <si>
-    <t>This is a generic template to allow scientists in using a well structured data workflow following the project-oriented approach and findable accessible interoperable and reusable (FAIR) principles for data and code publication in science. The project contains a example of data from the CIMMYT market intelligence research (Donovan et al 2025, https://doi.org/10.1017/S001447972500002X) with data description and an example of R script for analysis and documentation. Feel free to delete the example files once the project is adapted for your needs.</t>
+    <t>crop yield; smallholder farms; participatory plant breeding; tricot approach</t>
+  </si>
+  <si>
+    <t>Replication code and data for: Accuracy of farmer-generated yield estimations of common bean in decentralised on-farm trials in sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>Nabateregga</t>
+  </si>
+  <si>
+    <t>0000-0002-6731-152X</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Dorado-Betancourt</t>
+  </si>
+  <si>
+    <t>0000-0002-0103-7505</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>Wageningen University and Research</t>
+  </si>
+  <si>
+    <t>AVISA</t>
+  </si>
+  <si>
+    <t>INV-009649</t>
+  </si>
+  <si>
+    <t>This is a yield determination survey under the projects 1000FARMS and AVISA. The yield determination surveys were carried out in the Northern zone of Tanzania, in Kilindi and Karatu district in 2022. The aim of this study is to evaluate how farmers determine yield in an-farm context  through weighing and visual estimations. The data that was collected has been categorized into five sections, namely, farmer demographics and characterization, acuity and literacy tests, farmer-led yield estimations, researcher-led yield estimations and plot size and plot-related characteristics.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -280,6 +292,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +608,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -605,12 +624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -625,8 +644,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -637,12 +656,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,39 +749,58 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +813,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -787,50 +825,47 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DBD07CB8-4C60-DC49-A47F-A5C36097E2A4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -850,18 +885,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -884,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/bean-yield-estimation/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F4BC67-92F9-8B4E-A15D-F23A3B94127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2D4F2E-6341-5345-A0AF-7BB21CCBBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>INV-031561</t>
   </si>
   <si>
-    <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
-  </si>
-  <si>
     <t>cropontologycop</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>This is a yield determination survey under the projects 1000FARMS and AVISA. The yield determination surveys were carried out in the Northern zone of Tanzania, in Kilindi and Karatu district in 2022. The aim of this study is to evaluate how farmers determine yield in an-farm context  through weighing and visual estimations. The data that was collected has been categorized into five sections, namely, farmer demographics and characterization, acuity and literacy tests, farmer-led yield estimations, researcher-led yield estimations and plot size and plot-related characteristics.</t>
+  </si>
+  <si>
+    <t>https://github.com/AgrDataSci/bean-yield-estimation</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -749,37 +749,37 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +859,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +893,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/bean-yield-estimation/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2D4F2E-6341-5345-A0AF-7BB21CCBBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2FB003-9652-D641-B43D-2235D071870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="33980" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>key</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>https://github.com/AgrDataSci/bean-yield-estimation</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>van Etten</t>
+  </si>
+  <si>
+    <t>Joost</t>
+  </si>
+  <si>
+    <t>van Heerwaarden</t>
+  </si>
+  <si>
+    <t>0000-0001-7554-2558</t>
+  </si>
+  <si>
+    <t>0000-0002-4959-3914</t>
   </si>
 </sst>
 </file>
@@ -607,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -711,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,21 +803,55 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
     </row>
